--- a/target/classes/caseconf/CashAccountQueryLimit/Case_CashAccountQueryLimit.xlsx
+++ b/target/classes/caseconf/CashAccountQueryLimit/Case_CashAccountQueryLimit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9760"/>
   </bookViews>
   <sheets>
     <sheet name="CashAccountQueryLimit" sheetId="2" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="59">
   <si>
     <t>lable</t>
     <phoneticPr fontId="13" type="noConversion"/>
@@ -304,18 +304,6 @@
     "resCode": "E0000",
     "resMsg": "成功",
     "successful": 1}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"requestId":"199991",
- "tenantId": "1001",
- "tenantUserId":"000113",
- "tenantAccountId":"003",
- "params":{
-"ICBC":"6222888899313"
- }
-}</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -407,13 +395,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>delete from user_request_serial where tenant_id = 1001;
-delete from cash_account where tenant_user_id = 000113;
-delete from cash_account where  tenant_account_id =003;
-delete from cash_account_item where tenant_account_id = 003</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>exceptSQL</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -477,6 +458,25 @@
  "tenantAccountId":""
 }</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"requestId":"199991",
+ "tenantId": "1001",
+ "tenantUserId":"000113",
+ "tenantAccountId":"003",
+ "params":{
+"ICBC":"6222888899313"
+ }
+}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where request_id = 199991;
+delete from cash_account where tenant_user_id = 000113;
+delete from cash_account where  tenant_account_id =003;
+delete from cash_account_item where tenant_account_id = 003</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1183,9 +1183,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1251,10 +1251,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O1" s="51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P1" s="51" t="s">
         <v>17</v>
@@ -1275,7 +1275,7 @@
       <c r="E2" s="61"/>
       <c r="F2" s="61"/>
       <c r="G2" s="48" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>35</v>
@@ -1284,10 +1284,10 @@
         <v>40</v>
       </c>
       <c r="J2" s="62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K2" s="63" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="L2" s="60"/>
       <c r="M2" s="63" t="s">
@@ -1319,13 +1319,13 @@
         <v>37</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K3" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="64" t="s">
         <v>43</v>
-      </c>
-      <c r="M3" s="64" t="s">
-        <v>44</v>
       </c>
       <c r="N3" s="49"/>
       <c r="O3" s="47"/>
@@ -1353,7 +1353,7 @@
         <v>37</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4" s="43" t="s">
         <v>38</v>
@@ -1387,13 +1387,13 @@
         <v>37</v>
       </c>
       <c r="J5" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="65" t="s">
         <v>53</v>
-      </c>
-      <c r="K5" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="65" t="s">
-        <v>55</v>
       </c>
       <c r="N5" s="45"/>
       <c r="O5" s="52"/>
@@ -1419,14 +1419,14 @@
         <v>37</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K6" s="57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L6" s="58"/>
       <c r="M6" s="57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N6" s="15"/>
       <c r="O6" s="53"/>
@@ -1452,14 +1452,14 @@
         <v>37</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K7" s="57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L7" s="58"/>
       <c r="M7" s="57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="53"/>
@@ -1485,13 +1485,13 @@
         <v>37</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="M8" s="64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="53"/>
@@ -1517,14 +1517,14 @@
         <v>37</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K9" s="57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L9" s="58"/>
       <c r="M9" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="53"/>
@@ -1550,13 +1550,13 @@
         <v>37</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M10" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="32"/>

--- a/target/classes/caseconf/CashAccountQueryLimit/Case_CashAccountQueryLimit.xlsx
+++ b/target/classes/caseconf/CashAccountQueryLimit/Case_CashAccountQueryLimit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="-20880" windowWidth="33340" windowHeight="19200"/>
+    <workbookView xWindow="-480" yWindow="-23240" windowWidth="33340" windowHeight="19200"/>
   </bookViews>
   <sheets>
     <sheet name="CashAccountQueryLimit" sheetId="2" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>lable</t>
     <phoneticPr fontId="12" type="noConversion"/>
@@ -394,14 +394,6 @@
 insert into cash_account (account_id,user_id,tenant_user_id,tenant_id,tenant_account_id,secret_key,account_status,create_time,update_time) values ("699998561629069312","699222007535509504","000113","1001","0123","ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVicVBJWFVtZ2c1RVljMGF5WFBQOXUrUm9mMmgwczhjQ2JBQUFBQUFBQUFBQUQzNmF6NjMwQ0xwZWVrRmM5cGdKSXBEaEJmdWc1aXF1ZENhdDhTdnFwcXAzWko1MngxVGNjOFJoYkM3YkZnejJOV1h0UUhmemxmYnhDeUI5OTBXTWxMNHV4bDhjSC9zUjBGejlIaXdETjU3SGxzcmcxNEk0QkNBUDVXNmVkMkFteDMwZU1VV1o5RzluNEFmeUhkRlNPMkZwTVBrUjEzMmxTa1VzVHd6elAyZWVjY1E5VXNldjFQUGFFQld0aExtSVdnR2lNTmpSeitTaGVTS3hxOXJEc0dObFd3R3l4RlhiRUpjU09mYmZWaFRMZm12dy9iQkxjWUF3TUttL0hCYjh1bWNIUWo2Y2xZdi9SV3Z5QnJYOC9reEh2N1I1T05jZmgrTWdySEZFUEJQbUxLV3ZXMlowTzdBUUdEaWQxNisrdURQV29zb29uSHI2YTF1YmlGYkNGcWMyMjlGbEhCOTBsSlFxWVBzNjVXc1pTYlRjQ3dYVVJNb3dzbWZZbkhqVFREQUZxY1oxMUpLbTVoK0lrVDlVdEFnbTh1WFAvS0grTC83aFkxWE1OOWhIZVo0UmhnakJQcjdObVVSaE02QWwwdFdodDVLUHQ1S0pZU3Q0TEFRQlhibjY3NGxwYWxKZz0=","success","2020-04-15 15:04:22","2020-04-15 15:04:22")
 </t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantId": "1001",
- "tenantUserId": "000113",
- "tenantAccountId": ""
-}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -479,18 +471,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into cash_account_item (id,account_id,tenant_id,tenant_account_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("48539","699998561629069312","1001","0123","phone","1**********","Njxh5lvLIbuMQzwXg/HXpw==","e26695662b631e45665acf6bd8214fa5","1","2020-04-15 15:04:22","2020-04-15 15:04:22");
-insert into cash_account (account_id,user_id,tenant_user_id,tenant_id,tenant_account_id,secret_key,account_status,create_time,update_time) values ("699998561629069312","699222007535509504","000113","1001","0123","ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVicVBJWFVtZ2c1RVljMGF5WFBQOXUrUm9mMmgwczhjQ2JBQUFBQUFBQUFBQUQzNmF6NjMwQ0xwZWVrRmM5cGdKSXBEaEJmdWc1aXF1ZENhdDhTdnFwcXAzWko1MngxVGNjOFJoYkM3YkZnejJOV1h0UUhmemxmYnhDeUI5OTBXTWxMNHV4bDhjSC9zUjBGejlIaXdETjU3SGxzcmcxNEk0QkNBUDVXNmVkMkFteDMwZU1VV1o5RzluNEFmeUhkRlNPMkZwTVBrUjEzMmxTa1VzVHd6elAyZWVjY1E5VXNldjFQUGFFQld0aExtSVdnR2lNTmpSeitTaGVTS3hxOXJEc0dObFd3R3l4RlhiRUpjU09mYmZWaFRMZm12dy9iQkxjWUF3TUttL0hCYjh1bWNIUWo2Y2xZdi9SV3Z5QnJYOC9reEh2N1I1T05jZmgrTWdySEZFUEJQbUxLV3ZXMlowTzdBUUdEaWQxNisrdURQV29zb29uSHI2YTF1YmlGYkNGcWMyMjlGbEhCOTBsSlFxWVBzNjVXc1pTYlRjQ3dYVVJNb3dzbWZZbkhqVFREQUZxY1oxMUpLbTVoK0lrVDlVdEFnbTh1WFAvS0grTC83aFkxWE1OOWhIZVo0UmhnakJQcjdObVVSaE02QWwwdFdodDVLUHQ1S0pZU3Q0TEFRQlhibjY3NGxwYWxKZz0=","success","2020-04-15 15:04:22","2020-04-15 15:04:22")
-</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>{"resCode":"USR3004","resMsg":"查询参数全空","successful":0}</t>
   </si>
   <si>
@@ -548,6 +528,57 @@
 "tenantAccountId":"0123"}]
 }</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "accountId": 699998561629069312,
+            "tenantUserId": "000113",
+            "tenantId": "1001",
+            "tenantAccountId": "0123",
+            "params": {
+                "phone": "18500000000"
+            }
+        }
+    ]
+}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId": "1001",
+ "tenantUserId": "000113",
+ "tenantAccountId": ""
+}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into cash_account_item (id,account_id,tenant_id,tenant_account_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("48539","699998561629069312","1001","0123","phone","1**********","Njxh5lvLIbuMQzwXg/HXpw==","e26695662b631e45665acf6bd8214fa5","1","2020-04-15 15:04:22","2020-04-15 15:04:22");
+insert into cash_account (account_id,user_id,tenant_user_id,tenant_id,tenant_account_id,secret_key,account_status,create_time,update_time) values ("699998561629069312","699222007535509504","000113","1001","0123","ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVicVBJWFVtZ2c1RVljMGF5WFBQOXUrUm9mMmgwczhjQ2JBQUFBQUFBQUFBQUQzNmF6NjMwQ0xwZWVrRmM5cGdKSXBEaEJmdWc1aXF1ZENhdDhTdnFwcXAzWko1MngxVGNjOFJoYkM3YkZnejJOV1h0UUhmemxmYnhDeUI5OTBXTWxMNHV4bDhjSC9zUjBGejlIaXdETjU3SGxzcmcxNEk0QkNBUDVXNmVkMkFteDMwZU1VV1o5RzluNEFmeUhkRlNPMkZwTVBrUjEzMmxTa1VzVHd6elAyZWVjY1E5VXNldjFQUGFFQld0aExtSVdnR2lNTmpSeitTaGVTS3hxOXJEc0dObFd3R3l4RlhiRUpjU09mYmZWaFRMZm12dy9iQkxjWUF3TUttL0hCYjh1bWNIUWo2Y2xZdi9SV3Z5QnJYOC9reEh2N1I1T05jZmgrTWdySEZFUEJQbUxLV3ZXMlowTzdBUUdEaWQxNisrdURQV29zb29uSHI2YTF1YmlGYkNGcWMyMjlGbEhCOTBsSlFxWVBzNjVXc1pTYlRjQ3dYVVJNb3dzbWZZbkhqVFREQUZxY1oxMUpLbTVoK0lrVDlVdEFnbTh1WFAvS0grTC83aFkxWE1OOWhIZVo0UmhnakJQcjdObVVSaE02QWwwdFdodDVLUHQ1S0pZU3Q0TEFRQlhibjY3NGxwYWxKZz0=","success","2020-04-15 15:04:22","2020-04-15 15:04:22")
+</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where request_id = "1331";
+delete from user_request_serial where tenant_id = "1001";
+delete from cash_account where tenant_account_id ="0123" ;
+delete from cash_account_item where tenant_account_id = "0123";
+delete from cash_account where tenant_account_id ="003" ;
+delete from cash_account_item where tenant_account_id = "003";
+delete from user_basic_info where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1244,8 +1275,8 @@
   <dimension ref="A1:R191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1341,7 +1372,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" s="48" t="s">
         <v>44</v>
@@ -1359,7 +1390,7 @@
         <v>47</v>
       </c>
       <c r="N2" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O2" s="49"/>
       <c r="P2" s="47"/>
@@ -1380,10 +1411,10 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
@@ -1398,7 +1429,7 @@
         <v>47</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O3" s="49"/>
       <c r="P3" s="47"/>
@@ -1481,7 +1512,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1502,11 +1533,11 @@
         <v>38</v>
       </c>
       <c r="L6" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M6" s="56"/>
       <c r="N6" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="53"/>
@@ -1519,7 +1550,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1528,7 +1559,7 @@
         <v>48</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
         <v>31</v>
@@ -1540,11 +1571,11 @@
         <v>38</v>
       </c>
       <c r="L7" s="62" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="M7" s="56"/>
       <c r="N7" s="62" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="O7" s="16"/>
       <c r="P7" s="53"/>
@@ -1557,7 +1588,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1572,11 +1603,11 @@
       </c>
       <c r="K8" s="57"/>
       <c r="L8" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M8" s="56"/>
       <c r="N8" s="64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O8" s="16"/>
       <c r="P8" s="53"/>
@@ -1619,7 +1650,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>22</v>
@@ -1643,11 +1674,11 @@
         <v>38</v>
       </c>
       <c r="L10" s="64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M10" s="56"/>
       <c r="N10" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="53"/>
@@ -1657,7 +1688,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>15</v>
@@ -1666,10 +1697,10 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="61" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
         <v>31</v>
@@ -1684,7 +1715,7 @@
         <v>35</v>
       </c>
       <c r="N11" s="62" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="O11" s="16"/>
       <c r="P11" s="32"/>

--- a/target/classes/caseconf/CashAccountQueryLimit/Case_CashAccountQueryLimit.xlsx
+++ b/target/classes/caseconf/CashAccountQueryLimit/Case_CashAccountQueryLimit.xlsx
@@ -1274,9 +1274,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
